--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-test-model-k-5.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-test-model-k-5.xlsx
@@ -99,13 +99,13 @@
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.42578125" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -142,28 +142,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>7.1237037190500443</v>
+        <v>2.1421040753125338</v>
       </c>
       <c r="C2" s="0">
-        <v>3.4248575572355975</v>
+        <v>0.22038107770705079</v>
       </c>
       <c r="D2" s="0">
-        <v>6.9598840497325467</v>
+        <v>1.9107506265664163</v>
       </c>
       <c r="E2" s="0">
-        <v>17.513512795695547</v>
+        <v>0.9945833772911753</v>
       </c>
       <c r="F2" s="0">
-        <v>4.1849149090149425</v>
+        <v>0.99728801120397281</v>
       </c>
       <c r="G2" s="0">
-        <v>4.4161700823176053</v>
+        <v>1.0077798663324984</v>
       </c>
       <c r="H2" s="0">
-        <v>-16.513512795695547</v>
+        <v>0.0054166227088247032</v>
       </c>
       <c r="I2" s="0">
-        <v>0.95471110849381191</v>
+        <v>0.57649437598628916</v>
       </c>
     </row>
     <row r="3">
@@ -171,28 +171,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>6.1956589039598517</v>
+        <v>1.1198306211201652</v>
       </c>
       <c r="C3" s="0">
-        <v>2.9786821653653126</v>
+        <v>0.11520891163787707</v>
       </c>
       <c r="D3" s="0">
-        <v>6.0195320752664401</v>
+        <v>1.0683914536974246</v>
       </c>
       <c r="E3" s="0">
-        <v>13.247580499108567</v>
+        <v>0.27180956736569606</v>
       </c>
       <c r="F3" s="0">
-        <v>3.6397225854601292</v>
+        <v>0.52135359149592142</v>
       </c>
       <c r="G3" s="0">
-        <v>3.8195000477578929</v>
+        <v>0.56349760216108913</v>
       </c>
       <c r="H3" s="0">
-        <v>-12.247580499108567</v>
+        <v>0.72819043263430394</v>
       </c>
       <c r="I3" s="0">
-        <v>0.97223534987067062</v>
+        <v>0.91154833997235962</v>
       </c>
     </row>
     <row r="4">
@@ -200,28 +200,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>4.5933430091818748</v>
+        <v>4.2128375235700704</v>
       </c>
       <c r="C4" s="0">
-        <v>0.32484745468047199</v>
+        <v>0.36825502828409712</v>
       </c>
       <c r="D4" s="0">
-        <v>3.6360000000000001</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.72035125095597075</v>
+        <v>1.3231544574828158</v>
       </c>
       <c r="F4" s="0">
-        <v>0.84873508879742376</v>
+        <v>1.1502845115373916</v>
       </c>
       <c r="G4" s="0">
-        <v>0.8808139534883721</v>
+        <v>1.1723163841807913</v>
       </c>
       <c r="H4" s="0">
-        <v>0.27964874904402925</v>
+        <v>-0.32315445748281579</v>
       </c>
       <c r="I4" s="0">
-        <v>0.78485659207149727</v>
+        <v>0.83980129657442193</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-test-model-k-5.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-test-model-k-5.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -104,100 +176,100 @@
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0">
-        <v>1.8232906381050051</v>
+        <v>2.0600074572046672</v>
       </c>
       <c r="C2" s="0">
-        <v>0.18758134136882768</v>
+        <v>0.21193492358072705</v>
       </c>
       <c r="D2" s="0">
-        <v>1.6520734975592422</v>
+        <v>1.7581105820105822</v>
       </c>
       <c r="E2" s="0">
-        <v>0.72056284701780771</v>
+        <v>0.91980898295015612</v>
       </c>
       <c r="F2" s="0">
-        <v>0.84885973341760512</v>
+        <v>0.95906672497285406</v>
       </c>
       <c r="G2" s="0">
-        <v>0.87134678141310273</v>
+        <v>0.92727351371866185</v>
       </c>
       <c r="H2" s="0">
-        <v>0.27943715298219229</v>
+        <v>0.080191017049843882</v>
       </c>
       <c r="I2" s="0">
-        <v>0.6614954256422122</v>
+        <v>0.64284033472311763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0">
-        <v>1.2744327008315488</v>
+        <v>1.0776068467591551</v>
       </c>
       <c r="C3" s="0">
-        <v>0.13111447539419224</v>
+        <v>0.11086490192995421</v>
       </c>
       <c r="D3" s="0">
-        <v>1.2393455539485663</v>
+        <v>1.0735354418487462</v>
       </c>
       <c r="E3" s="0">
-        <v>0.35204150965597292</v>
+        <v>0.25169856861934481</v>
       </c>
       <c r="F3" s="0">
-        <v>0.59333086019182668</v>
+        <v>0.50169569324376784</v>
       </c>
       <c r="G3" s="0">
-        <v>0.65366326685050991</v>
+        <v>0.56621067608056252</v>
       </c>
       <c r="H3" s="0">
-        <v>0.64795849034402708</v>
+        <v>0.74830143138065519</v>
       </c>
       <c r="I3" s="0">
-        <v>0.89904462447518541</v>
+        <v>0.94119535275768729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0">
         <v>4.2128375235700704</v>
